--- a/output/ValueSet-2.16.840.1.113883.3.1937.99.61.76.11.2--20221103133509.xlsx
+++ b/output/ValueSet-2.16.840.1.113883.3.1937.99.61.76.11.2--20221103133509.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-2.16.840.1.113883.3.1937.99.61.76.11.2--20221103133509.xlsx
+++ b/output/ValueSet-2.16.840.1.113883.3.1937.99.61.76.11.2--20221103133509.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-2.16.840.1.113883.3.1937.99.61.76.11.2--20221103133509.xlsx
+++ b/output/ValueSet-2.16.840.1.113883.3.1937.99.61.76.11.2--20221103133509.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-2.16.840.1.113883.3.1937.99.61.76.11.2--20221103133509.xlsx
+++ b/output/ValueSet-2.16.840.1.113883.3.1937.99.61.76.11.2--20221103133509.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
